--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23430" windowHeight="12105"/>
+    <workbookView windowWidth="16530" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelDetailsInfo" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>content</t>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>icon_key</t>
+  </si>
+  <si>
+    <t>map_position</t>
+  </si>
+  <si>
+    <t>title_cn</t>
+  </si>
+  <si>
+    <t>title_en</t>
+  </si>
+  <si>
+    <t>content_cn</t>
+  </si>
+  <si>
+    <t>content_en</t>
   </si>
   <si>
     <t>remark</t>
@@ -34,31 +52,28 @@
     <t>序号</t>
   </si>
   <si>
+    <t>模块ID</t>
+  </si>
+  <si>
+    <t>图标（图集，名字）</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
     <t>内容</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>0,1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>角色创建数据-头发</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>角色创建数据-眼睛</t>
-  </si>
-  <si>
-    <t>角色创建数据-嘴巴</t>
-  </si>
-  <si>
-    <t>0,1200001,1200002</t>
-  </si>
-  <si>
-    <t>角色创建数据-衣服</t>
+    <t>SpriteAtlasForUI,ui_book_1</t>
+  </si>
+  <si>
+    <t>0,0</t>
   </si>
 </sst>
 </file>
@@ -66,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -80,8 +95,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,15 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,36 +211,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,69 +227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,11 +442,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,31 +485,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,16 +559,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,115 +577,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,19 +1041,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="8" width="26.75" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1048,71 +1064,197 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="22" customHeight="1" spans="1:9">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>100001</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>200001</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>300001</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>400001</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="8820"/>
+    <workbookView windowWidth="22515" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelDetailsInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>content_en</t>
   </si>
   <si>
+    <t>unlock_items</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>内容</t>
   </si>
   <si>
+    <t>解锁拥有道具</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -74,6 +80,35 @@
   </si>
   <si>
     <t>0,0</t>
+  </si>
+  <si>
+    <t>前言</t>
+  </si>
+  <si>
+    <t>　　首先，祝贺你成为魔法帝国秘法学院新一届的见习魔法师。
+　　秘法学院作为魔法帝国首屈一指的魔法教导机构，有着历史悠久的教学方法和理念。作为一名见习魔法师，接下来这段时间，你将在这个陌生的世界维度里学习和生活。直到你掌握了必要的魔法知识，并清除了这个世界所存在的污秽力量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  First of all, congratulations on becoming the new apprentice sorcerer at the Magical Empire Mystics School.
+  As the premier magical teaching institution in the Magic Empire, the School of Mystics has a long history of teaching methods and concepts. As a trainee magician, you will spend the next few days learning and living in this dimension of an alien world. Until you have mastered the necessary magical knowledge and have cleansed the world of the corrupting powers that exist</t>
+  </si>
+  <si>
+    <t>首先，祝贺你成为魔法帝国秘法学院新一届的见习魔法师。秘法学院作为魔法帝国首屈一指的魔法教导机构，有着历史悠久的教学方法和理念。作为一名见习魔法师，接下来这段时间，你将在这个陌生的世界维度里学习和生活。直到你掌握了必要的魔法知识，并清除了这个世界所存在的污秽力量。</t>
+  </si>
+  <si>
+    <t>0,-50</t>
+  </si>
+  <si>
+    <t>魔力构成</t>
+  </si>
+  <si>
+    <t>　　所有维度的世界都是由7种基础魔力元素构成，它们分别是金木水火土光暗七中魔力元素相辅相成，又相生相克。由七种魔力元素衍生的魔力元素无计其数，但都受到基础魔力元素的影响。试着在这个世界收集一种元素粉尘，打开魔法世界的大门把</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The worlds of all dimensions are made up of seven basic magical elements: wood, metal, water, fire, earth, light and dark. There are countless magic elements derived from the seven magic elements, but all are influenced by the base magic element. Try to collect an elemental dust in this world to open the door to the magic world</t>
+  </si>
+  <si>
+    <t>200001,2|200002&amp;200003</t>
   </si>
 </sst>
 </file>
@@ -81,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,14 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -111,19 +138,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -132,31 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +189,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -187,14 +221,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -219,6 +245,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,13 +269,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,25 +283,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,157 +445,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,15 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +518,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +536,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,139 +594,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,20 +1082,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="40.875" customWidth="1"/>
-    <col min="4" max="8" width="26.75" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="4" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
+    <col min="8" max="9" width="42.5" customWidth="1"/>
+    <col min="10" max="10" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,66 +1125,75 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:9">
+    <row r="2" ht="22" customHeight="1" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="175.5" spans="1:10">
       <c r="A4">
         <v>100001</v>
       </c>
@@ -1149,111 +1201,141 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="210" customHeight="1" spans="1:9">
+      <c r="A5">
+        <v>100002</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>200001</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>200001</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>300001</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
-        <v>2</v>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>300001</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>400001</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>400001</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="9990"/>
+    <workbookView windowWidth="18150" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelDetailsInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>map_position</t>
   </si>
   <si>
+    <t>show_pre</t>
+  </si>
+  <si>
     <t>title_cn</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>位置</t>
+  </si>
+  <si>
+    <t>展示前置</t>
   </si>
   <si>
     <t>标题</t>
@@ -116,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,51 +137,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,21 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -228,6 +227,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -235,40 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,19 +289,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,25 +379,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,73 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,55 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,17 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -574,6 +569,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,142 +600,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1082,22 +1085,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="40.875" customWidth="1"/>
-    <col min="4" max="6" width="26.75" customWidth="1"/>
-    <col min="7" max="7" width="33.125" customWidth="1"/>
-    <col min="8" max="9" width="42.5" customWidth="1"/>
-    <col min="10" max="10" width="33.5" customWidth="1"/>
+    <col min="4" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="8" width="33.125" customWidth="1"/>
+    <col min="9" max="10" width="42.5" customWidth="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,72 +1131,81 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:10">
+    <row r="2" ht="22" customHeight="1" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" ht="175.5" spans="1:10">
+    <row r="4" ht="175.5" spans="1:11">
       <c r="A4">
         <v>100001</v>
       </c>
@@ -1201,29 +1213,29 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" ht="210" customHeight="1" spans="1:9">
+    <row r="5" ht="210" customHeight="1" spans="1:10">
       <c r="A5">
         <v>100002</v>
       </c>
@@ -1231,28 +1243,31 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>100001</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>200001</v>
       </c>
@@ -1260,28 +1275,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>300001</v>
       </c>
@@ -1289,28 +1304,28 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>400001</v>
       </c>
@@ -1318,24 +1333,24 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
         <v>4</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18150" windowHeight="8655"/>
+    <workbookView windowWidth="19785" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelDetailsInfo" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <t>首先，祝贺你成为魔法帝国秘法学院新一届的见习魔法师。秘法学院作为魔法帝国首屈一指的魔法教导机构，有着历史悠久的教学方法和理念。作为一名见习魔法师，接下来这段时间，你将在这个陌生的世界维度里学习和生活。直到你掌握了必要的魔法知识，并清除了这个世界所存在的污秽力量。</t>
   </si>
   <si>
-    <t>0,-50</t>
+    <t>0,-100</t>
   </si>
   <si>
     <t>魔力构成</t>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="17070"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelDetailsInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>show_pre</t>
   </si>
   <si>
+    <t>show_pre_line</t>
+  </si>
+  <si>
     <t>title_cn</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -70,13 +76,16 @@
     <t>展示前置</t>
   </si>
   <si>
+    <t>展示前置线（0不展示 1展示）</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
     <t>内容</t>
   </si>
   <si>
-    <t>解锁拥有道具</t>
+    <t>解锁（持有道具）</t>
   </si>
   <si>
     <t>备注</t>
@@ -89,6 +98,9 @@
   </si>
   <si>
     <t>前言</t>
+  </si>
+  <si>
+    <t>Introduction</t>
   </si>
   <si>
     <t>　　首先，祝贺你成为魔法帝国秘法学院新一届的见习魔法师。
@@ -99,22 +111,37 @@
   As the premier magical teaching institution in the Magic Empire, the School of Mystics has a long history of teaching methods and concepts. As a trainee magician, you will spend the next few days learning and living in this dimension of an alien world. Until you have mastered the necessary magical knowledge and have cleansed the world of the corrupting powers that exist</t>
   </si>
   <si>
-    <t>首先，祝贺你成为魔法帝国秘法学院新一届的见习魔法师。秘法学院作为魔法帝国首屈一指的魔法教导机构，有着历史悠久的教学方法和理念。作为一名见习魔法师，接下来这段时间，你将在这个陌生的世界维度里学习和生活。直到你掌握了必要的魔法知识，并清除了这个世界所存在的污秽力量。</t>
-  </si>
-  <si>
     <t>0,-100</t>
   </si>
   <si>
     <t>魔力构成</t>
   </si>
   <si>
-    <t>　　所有维度的世界都是由7种基础魔力元素构成，它们分别是金木水火土光暗七中魔力元素相辅相成，又相生相克。由七种魔力元素衍生的魔力元素无计其数，但都受到基础魔力元素的影响。试着在这个世界收集一种元素粉尘，打开魔法世界的大门把</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  The worlds of all dimensions are made up of seven basic magical elements: wood, metal, water, fire, earth, light and dark. There are countless magic elements derived from the seven magic elements, but all are influenced by the base magic element. Try to collect an elemental dust in this world to open the door to the magic world</t>
-  </si>
-  <si>
-    <t>200001,2|200002&amp;200003</t>
+    <t>Magic Base</t>
+  </si>
+  <si>
+    <t>　　所有维度的世界都是由七种基础魔力元素构成，它们分别是金木水火土光暗。七种魔力元素相辅相成，又相生相克。由七种魔力元素衍生的魔力元素无计其数，但都受到基础魔力元素的影响。试着在这个世界收集一种元素粉尘，打开魔法世界的大门把</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The world in all dimensions is made up of seven basic magic elements, which are gold, wood, water, fire, Earth, light and dark. The seven magic elements are mutually reinforcing and mutually reinforcing. There are an infinite number of mana elements derived from the seven mana elements, but all are affected by the base mana element. Try to collect an elemental dust in this world and open the door to the magic world</t>
+  </si>
+  <si>
+    <t>SpriteAtlasForItems,icon_item_106101</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>制造台</t>
+  </si>
+  <si>
+    <t>Crafting Table</t>
+  </si>
+  <si>
+    <t>　　制造台是一切生活的开端。各种生活用具建筑材料等等的制造都离不开制造台。试着搜集材料，制作一个简易的制造台吧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The manufacturing table is the beginning of all life. All kinds of living utensils, building materials and so on are inseparable from the manufacturing platform. Try gathering materials to make a simple manufacturing table</t>
   </si>
 </sst>
 </file>
@@ -1085,22 +1112,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="40.875" customWidth="1"/>
-    <col min="4" max="7" width="26.75" customWidth="1"/>
-    <col min="8" max="8" width="33.125" customWidth="1"/>
-    <col min="9" max="10" width="42.5" customWidth="1"/>
-    <col min="11" max="11" width="33.5" customWidth="1"/>
+    <col min="4" max="8" width="26.75" customWidth="1"/>
+    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="10" max="10" width="42.5" customWidth="1"/>
+    <col min="11" max="11" width="28.625" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1134,78 +1162,87 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:11">
+    <row r="2" ht="22" customHeight="1" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" ht="175.5" spans="1:11">
+    <row r="4" ht="175.5" spans="1:12">
       <c r="A4">
         <v>100001</v>
       </c>
@@ -1213,144 +1250,189 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" ht="210" customHeight="1" spans="1:10">
       <c r="A5">
-        <v>100002</v>
+        <v>110001</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>100001</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" ht="210" customHeight="1" spans="1:11">
       <c r="A6">
+        <v>120001</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>100001</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>106101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>200001</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6">
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>300001</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>400001</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8">
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9">
         <v>4</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -67,7 +67,7 @@
     <t>模块ID</t>
   </si>
   <si>
-    <t>图标（图集，名字）</t>
+    <t>图标（图集0UI 1Item 3Sky，名字）</t>
   </si>
   <si>
     <t>位置</t>
@@ -85,13 +85,13 @@
     <t>内容</t>
   </si>
   <si>
-    <t>解锁（持有道具）</t>
+    <t>解锁（持有道具 | 分割：表示数量）</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>SpriteAtlasForUI,ui_book_1</t>
+    <t>0,ui_book_1</t>
   </si>
   <si>
     <t>0,0</t>
@@ -111,6 +111,9 @@
   As the premier magical teaching institution in the Magic Empire, the School of Mystics has a long history of teaching methods and concepts. As a trainee magician, you will spend the next few days learning and living in this dimension of an alien world. Until you have mastered the necessary magical knowledge and have cleansed the world of the corrupting powers that exist</t>
   </si>
   <si>
+    <t>1,icon_item_910101</t>
+  </si>
+  <si>
     <t>0,-100</t>
   </si>
   <si>
@@ -126,7 +129,19 @@
     <t xml:space="preserve">  The world in all dimensions is made up of seven basic magic elements, which are gold, wood, water, fire, Earth, light and dark. The seven magic elements are mutually reinforcing and mutually reinforcing. There are an infinite number of mana elements derived from the seven mana elements, but all are affected by the base mana element. Try to collect an elemental dust in this world and open the door to the magic world</t>
   </si>
   <si>
-    <t>SpriteAtlasForItems,icon_item_106101</t>
+    <t>910101|910102|910103|910104|910105|910106|910107</t>
+  </si>
+  <si>
+    <t>1,icon_item_910109</t>
+  </si>
+  <si>
+    <t>0,-200</t>
+  </si>
+  <si>
+    <t>混沌魔力元素</t>
+  </si>
+  <si>
+    <t>1,icon_item_106101</t>
   </si>
   <si>
     <t>0,100</t>
@@ -142,6 +157,66 @@
   </si>
   <si>
     <t xml:space="preserve">  The manufacturing table is the beginning of all life. All kinds of living utensils, building materials and so on are inseparable from the manufacturing platform. Try gathering materials to make a simple manufacturing table</t>
+  </si>
+  <si>
+    <t>1,icon_item_2300001</t>
+  </si>
+  <si>
+    <t>0,200</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>1,icon_item_2200001</t>
+  </si>
+  <si>
+    <t>镐子</t>
+  </si>
+  <si>
+    <t>Pickaxe</t>
+  </si>
+  <si>
+    <t>1,icon_item_2100001</t>
+  </si>
+  <si>
+    <t>锄头</t>
+  </si>
+  <si>
+    <t>Hoe</t>
+  </si>
+  <si>
+    <t>1,icon_item_2400001</t>
+  </si>
+  <si>
+    <t>铲子</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>1,icon_item_3100001</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>1,icon_item_2900001</t>
+  </si>
+  <si>
+    <t>水壶</t>
+  </si>
+  <si>
+    <t>Watering Can</t>
+  </si>
+  <si>
+    <t>SpriteAtlasForUI,ui_book_1</t>
   </si>
 </sst>
 </file>
@@ -757,12 +832,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,14 +1190,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="40.875" customWidth="1"/>
     <col min="4" max="8" width="26.75" customWidth="1"/>
     <col min="9" max="9" width="33.125" customWidth="1"/>
@@ -1273,7 +1352,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" ht="210" customHeight="1" spans="1:10">
+    <row r="5" ht="210" customHeight="1" spans="1:11">
       <c r="A5">
         <v>110001</v>
       </c>
@@ -1281,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>100001</v>
@@ -1293,150 +1372,401 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="210" customHeight="1" spans="1:11">
+      <c r="A6">
+        <v>111001</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>110001</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>910109</v>
       </c>
     </row>
-    <row r="6" ht="210" customHeight="1" spans="1:11">
-      <c r="A6">
+    <row r="7" ht="284" customHeight="1" spans="1:11">
+      <c r="A7">
         <v>120001</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
         <v>100001</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7">
         <v>106101</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+    <row r="8" customFormat="1" ht="55" customHeight="1" spans="1:11">
+      <c r="A8">
+        <v>121001</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>120001</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>2300001</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="41" customHeight="1" spans="1:11">
+      <c r="A9">
+        <v>121002</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100200</v>
+      </c>
+      <c r="E9">
+        <v>120001</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9">
+        <v>2200001</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="51" customHeight="1" spans="1:11">
+      <c r="A10">
+        <v>121003</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2">
+        <v>200200</v>
+      </c>
+      <c r="E10">
+        <v>120001</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>2100001</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="52" customHeight="1" spans="1:11">
+      <c r="A11">
+        <v>121004</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-100200</v>
+      </c>
+      <c r="E11">
+        <v>120001</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
+        <v>2400001</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="56" customHeight="1" spans="1:11">
+      <c r="A12">
+        <v>121005</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-200200</v>
+      </c>
+      <c r="E12">
+        <v>120001</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12">
+        <v>3100001</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A13">
+        <v>122001</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2">
+        <v>200300</v>
+      </c>
+      <c r="E13">
+        <v>121003</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>2900001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>200001</v>
       </c>
-      <c r="B7">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J14" t="s">
         <v>22</v>
       </c>
-      <c r="L7">
+      <c r="L14">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>300001</v>
       </c>
-      <c r="B8">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I15" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="L8">
+      <c r="L15">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>400001</v>
       </c>
-      <c r="B9">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I16" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J16" t="s">
         <v>22</v>
       </c>
-      <c r="L9">
+      <c r="L16">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:L15">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>混沌魔力元素</t>
+  </si>
+  <si>
+    <t>神秘魔力元素</t>
   </si>
   <si>
     <t>1,icon_item_106101</t>
@@ -1192,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1413,10 +1416,10 @@
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>910109</v>
@@ -1430,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>100001</v>
@@ -1442,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>106101</v>
@@ -1465,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>120001</v>
@@ -1477,16 +1480,16 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>2300001</v>
@@ -1500,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2">
         <v>100200</v>
@@ -1512,16 +1515,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
         <v>2200001</v>
@@ -1535,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>200200</v>
@@ -1547,16 +1550,16 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
         <v>2100001</v>
@@ -1570,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>-100200</v>
@@ -1582,16 +1585,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11">
         <v>2400001</v>
@@ -1605,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
         <v>-200200</v>
@@ -1617,16 +1620,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
         <v>62</v>
       </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12">
         <v>3100001</v>
@@ -1640,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2">
         <v>200300</v>
@@ -1652,16 +1655,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13">
         <v>2900001</v>
@@ -1675,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1707,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1739,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -138,12 +138,12 @@
     <t>0,-200</t>
   </si>
   <si>
-    <t>混沌魔力元素</t>
-  </si>
-  <si>
     <t>神秘魔力元素</t>
   </si>
   <si>
+    <t>Thaum Elemental Powder</t>
+  </si>
+  <si>
     <t>1,icon_item_106101</t>
   </si>
   <si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Watering Can</t>
+  </si>
+  <si>
+    <t>1,icon_item_106111</t>
+  </si>
+  <si>
+    <t>奥术制造台</t>
+  </si>
+  <si>
+    <t>Arcane Crafting Table</t>
   </si>
   <si>
     <t>SpriteAtlasForUI,ui_book_1</t>
@@ -1195,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1413,10 +1422,10 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
@@ -1670,7 +1679,7 @@
         <v>2900001</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>200001</v>
       </c>
@@ -1684,25 +1693,25 @@
         <v>26</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>106111</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>300001</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1730,11 +1739,8 @@
       <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>400001</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1761,9 +1767,6 @@
       </c>
       <c r="J16" t="s">
         <v>22</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="23325" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelDetailsInfo" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
     <t>long</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>序号</t>
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1262,37 +1262,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="11145"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelDetailsInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -174,6 +174,9 @@
     <t>Axe</t>
   </si>
   <si>
+    <t xml:space="preserve">    制作一把斧头，搜集木材资源吧。</t>
+  </si>
+  <si>
     <t>1,icon_item_2200001</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Pickaxe</t>
   </si>
   <si>
+    <t xml:space="preserve">    制作一把镐子，开采石头或者矿物吧。</t>
+  </si>
+  <si>
     <t>1,icon_item_2100001</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>Hoe</t>
   </si>
   <si>
+    <t xml:space="preserve">    制作一把锄头，开坑土地，为种植打下基础吧。</t>
+  </si>
+  <si>
     <t>1,icon_item_2400001</t>
   </si>
   <si>
@@ -201,6 +210,9 @@
     <t>Shovel</t>
   </si>
   <si>
+    <t xml:space="preserve">    制作一把铲子，更高效的挖掘沙土吧。</t>
+  </si>
+  <si>
     <t>1,icon_item_3100001</t>
   </si>
   <si>
@@ -210,6 +222,9 @@
     <t>Weapons</t>
   </si>
   <si>
+    <t xml:space="preserve">    制作一把武器，更好的保护自己吧。</t>
+  </si>
+  <si>
     <t>1,icon_item_2900001</t>
   </si>
   <si>
@@ -217,6 +232,9 @@
   </si>
   <si>
     <t>Watering Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    制作一个水壶，为植物的生长灌溉吧。</t>
   </si>
   <si>
     <t>1,icon_item_106111</t>
@@ -1204,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1495,7 +1513,7 @@
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>51</v>
@@ -1512,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
         <v>100200</v>
@@ -1524,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>2200001</v>
@@ -1547,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2">
         <v>200200</v>
@@ -1559,16 +1577,16 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>2100001</v>
@@ -1582,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>-100200</v>
@@ -1594,16 +1612,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11">
         <v>2400001</v>
@@ -1617,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
         <v>-200200</v>
@@ -1629,16 +1647,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K12">
         <v>3100001</v>
@@ -1652,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <v>200300</v>
@@ -1664,16 +1682,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K13">
         <v>2900001</v>
@@ -1687,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1696,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K14">
         <v>106111</v>
@@ -1719,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1748,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
